--- a/backend/server/data/test_data/HalalChicken.xlsx
+++ b/backend/server/data/test_data/HalalChicken.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cgilb\Documents\Code\mealplanner\backend\server\data\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D446C3A-9962-4E3E-8898-48EF2DA66800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F0AEE7-FD62-4D30-836C-7D35565271D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51480" yWindow="-7545" windowWidth="21840" windowHeight="38040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1103,10 +1103,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1484,8 +1483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,37 +1509,20 @@
         <v>93</v>
       </c>
       <c r="C1" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1">
-        <v>227.06</v>
-      </c>
-      <c r="F1">
-        <f>F5*1.5</f>
-        <v>227.05875</v>
-      </c>
-      <c r="G1">
-        <v>228.52</v>
-      </c>
-      <c r="H1">
-        <f>H5*1.5</f>
-        <v>228.52499999999998</v>
-      </c>
-      <c r="I1">
-        <v>366.63</v>
-      </c>
       <c r="K1" t="s">
         <v>96</v>
       </c>
       <c r="L1" s="1">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="N1" t="s">
         <v>192</v>
       </c>
       <c r="O1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1576,6 +1558,10 @@
       <c r="I3" s="1">
         <v>1</v>
       </c>
+      <c r="K3">
+        <f>SUM(J5,H5,F5,D5)</f>
+        <v>563.10749999999996</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1637,11 +1623,11 @@
       </c>
       <c r="L5">
         <f>(SUM(J5,H5,F5,D5)*$L$1)*($O$1/$C$1)</f>
-        <v>316.74796874999993</v>
+        <v>563.10749999999996</v>
       </c>
       <c r="M5">
         <f>L5/$C$1</f>
-        <v>39.593496093749991</v>
+        <v>140.77687499999999</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -1725,11 +1711,11 @@
       </c>
       <c r="L7">
         <f t="shared" si="4"/>
-        <v>4.8796875000000002</v>
+        <v>8.6750000000000007</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>0.60996093750000002</v>
+        <v>2.1687500000000002</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1857,11 +1843,11 @@
       </c>
       <c r="L10">
         <f t="shared" si="4"/>
-        <v>84.604218750000001</v>
+        <v>150.4075</v>
       </c>
       <c r="M10">
         <f t="shared" si="5"/>
-        <v>10.57552734375</v>
+        <v>37.601875</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1901,11 +1887,11 @@
       </c>
       <c r="L11">
         <f t="shared" si="4"/>
-        <v>95.89500000000001</v>
+        <v>170.48000000000002</v>
       </c>
       <c r="M11">
         <f t="shared" si="5"/>
-        <v>11.986875000000001</v>
+        <v>42.620000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1945,11 +1931,11 @@
       </c>
       <c r="L12">
         <f t="shared" si="4"/>
-        <v>8.5781250000000003E-2</v>
+        <v>0.1525</v>
       </c>
       <c r="M12">
         <f t="shared" si="5"/>
-        <v>1.072265625E-2</v>
+        <v>3.8124999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1989,11 +1975,11 @@
       </c>
       <c r="L13">
         <f t="shared" si="4"/>
-        <v>0.37265625000000002</v>
+        <v>0.66250000000000009</v>
       </c>
       <c r="M13">
         <f t="shared" si="5"/>
-        <v>4.6582031250000003E-2</v>
+        <v>0.16562500000000002</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -2033,11 +2019,11 @@
       </c>
       <c r="L14">
         <f t="shared" si="4"/>
-        <v>5.2087500000000011</v>
+        <v>9.2600000000000016</v>
       </c>
       <c r="M14">
         <f t="shared" si="5"/>
-        <v>0.65109375000000014</v>
+        <v>2.3150000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -2077,11 +2063,11 @@
       </c>
       <c r="L15">
         <f t="shared" si="4"/>
-        <v>1.1671875</v>
+        <v>2.0750000000000002</v>
       </c>
       <c r="M15">
         <f t="shared" si="5"/>
-        <v>0.14589843750000001</v>
+        <v>0.51875000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -2121,11 +2107,11 @@
       </c>
       <c r="L16">
         <f t="shared" si="4"/>
-        <v>0.60890624999999998</v>
+        <v>1.0825</v>
       </c>
       <c r="M16">
         <f t="shared" si="5"/>
-        <v>7.6113281249999998E-2</v>
+        <v>0.270625</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2165,11 +2151,11 @@
       </c>
       <c r="L17">
         <f t="shared" si="4"/>
-        <v>1.108125</v>
+        <v>1.9700000000000002</v>
       </c>
       <c r="M17">
         <f t="shared" si="5"/>
-        <v>0.138515625</v>
+        <v>0.49250000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2209,11 +2195,11 @@
       </c>
       <c r="L18">
         <f t="shared" si="4"/>
-        <v>22.432499999999997</v>
+        <v>39.879999999999995</v>
       </c>
       <c r="M18">
         <f t="shared" si="5"/>
-        <v>2.8040624999999997</v>
+        <v>9.9699999999999989</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2253,11 +2239,11 @@
       </c>
       <c r="L19">
         <f t="shared" si="4"/>
-        <v>0.10546875</v>
+        <v>0.1875</v>
       </c>
       <c r="M19">
         <f t="shared" si="5"/>
-        <v>1.318359375E-2</v>
+        <v>4.6875E-2</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2297,11 +2283,11 @@
       </c>
       <c r="L20">
         <f t="shared" si="4"/>
-        <v>1598.71921875</v>
+        <v>2842.1675</v>
       </c>
       <c r="M20">
         <f t="shared" si="5"/>
-        <v>199.83990234375</v>
+        <v>710.541875</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2341,11 +2327,11 @@
       </c>
       <c r="L21">
         <f t="shared" si="4"/>
-        <v>320.29453125000003</v>
+        <v>569.41250000000002</v>
       </c>
       <c r="M21">
         <f t="shared" si="5"/>
-        <v>40.036816406250004</v>
+        <v>142.35312500000001</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2429,11 +2415,11 @@
       </c>
       <c r="L23">
         <f t="shared" si="4"/>
-        <v>77.058281249999993</v>
+        <v>136.99249999999998</v>
       </c>
       <c r="M23">
         <f t="shared" si="5"/>
-        <v>9.6322851562499991</v>
+        <v>34.248124999999995</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2473,11 +2459,11 @@
       </c>
       <c r="L24">
         <f t="shared" si="4"/>
-        <v>1.3106249999999999</v>
+        <v>2.33</v>
       </c>
       <c r="M24">
         <f t="shared" si="5"/>
-        <v>0.16382812499999999</v>
+        <v>0.58250000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2517,11 +2503,11 @@
       </c>
       <c r="L25">
         <f t="shared" si="4"/>
-        <v>29.564999999999998</v>
+        <v>52.559999999999995</v>
       </c>
       <c r="M25">
         <f t="shared" si="5"/>
-        <v>3.6956249999999997</v>
+        <v>13.139999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2561,18 +2547,18 @@
       </c>
       <c r="L26">
         <f t="shared" si="4"/>
-        <v>5.0456249999999994</v>
+        <v>8.9699999999999989</v>
       </c>
       <c r="M26">
         <f t="shared" si="5"/>
-        <v>0.63070312499999992</v>
+        <v>2.2424999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>126</v>
       </c>
       <c r="C27">
@@ -2605,18 +2591,18 @@
       </c>
       <c r="L27">
         <f t="shared" si="4"/>
-        <v>2086.3406250000003</v>
+        <v>3709.05</v>
       </c>
       <c r="M27">
         <f t="shared" si="5"/>
-        <v>260.79257812500003</v>
+        <v>927.26250000000005</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>127</v>
       </c>
       <c r="C28">
@@ -2649,18 +2635,18 @@
       </c>
       <c r="L28">
         <f t="shared" si="4"/>
-        <v>0.5625</v>
+        <v>1</v>
       </c>
       <c r="M28">
         <f t="shared" si="5"/>
-        <v>7.03125E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>128</v>
       </c>
       <c r="C29">
@@ -2693,18 +2679,18 @@
       </c>
       <c r="L29">
         <f t="shared" si="4"/>
-        <v>19.186875000000001</v>
+        <v>34.11</v>
       </c>
       <c r="M29">
         <f t="shared" si="5"/>
-        <v>2.3983593750000001</v>
+        <v>8.5274999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>129</v>
       </c>
       <c r="C30">
@@ -2737,18 +2723,18 @@
       </c>
       <c r="L30">
         <f t="shared" si="4"/>
-        <v>166.72640625</v>
+        <v>296.40249999999997</v>
       </c>
       <c r="M30">
         <f t="shared" si="5"/>
-        <v>20.84080078125</v>
+        <v>74.100624999999994</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>130</v>
       </c>
       <c r="C31">
@@ -2781,18 +2767,18 @@
       </c>
       <c r="L31">
         <f t="shared" si="4"/>
-        <v>10.12921875</v>
+        <v>18.0075</v>
       </c>
       <c r="M31">
         <f t="shared" si="5"/>
-        <v>1.26615234375</v>
+        <v>4.5018750000000001</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>131</v>
       </c>
       <c r="C32">
@@ -2825,18 +2811,18 @@
       </c>
       <c r="L32">
         <f t="shared" si="4"/>
-        <v>7.3364062499999996</v>
+        <v>13.0425</v>
       </c>
       <c r="M32">
         <f t="shared" si="5"/>
-        <v>0.91705078124999995</v>
+        <v>3.2606250000000001</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>132</v>
       </c>
       <c r="C33">
@@ -2869,18 +2855,18 @@
       </c>
       <c r="L33">
         <f t="shared" si="4"/>
-        <v>2.5045312500000003</v>
+        <v>4.4525000000000006</v>
       </c>
       <c r="M33">
         <f t="shared" si="5"/>
-        <v>0.31306640625000004</v>
+        <v>1.1131250000000001</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>133</v>
       </c>
       <c r="C34">
@@ -2913,18 +2899,18 @@
       </c>
       <c r="L34">
         <f t="shared" si="4"/>
-        <v>33.074999999999996</v>
+        <v>58.8</v>
       </c>
       <c r="M34">
         <f t="shared" si="5"/>
-        <v>4.1343749999999995</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>134</v>
       </c>
       <c r="C35">
@@ -2957,18 +2943,18 @@
       </c>
       <c r="L35">
         <f t="shared" si="4"/>
-        <v>148.86281249999999</v>
+        <v>264.64499999999998</v>
       </c>
       <c r="M35">
         <f t="shared" si="5"/>
-        <v>18.607851562499999</v>
+        <v>66.161249999999995</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>135</v>
       </c>
       <c r="C36">
@@ -3012,7 +2998,7 @@
       <c r="A37" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>136</v>
       </c>
       <c r="C37">
@@ -3045,18 +3031,18 @@
       </c>
       <c r="L37">
         <f t="shared" si="4"/>
-        <v>0.24187500000000001</v>
+        <v>0.43</v>
       </c>
       <c r="M37">
         <f t="shared" si="5"/>
-        <v>3.0234375000000001E-2</v>
+        <v>0.1075</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>137</v>
       </c>
       <c r="C38">
@@ -3089,18 +3075,18 @@
       </c>
       <c r="L38">
         <f t="shared" si="4"/>
-        <v>0.99984374999999992</v>
+        <v>1.7774999999999999</v>
       </c>
       <c r="M38">
         <f t="shared" si="5"/>
-        <v>0.12498046874999999</v>
+        <v>0.44437499999999996</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>138</v>
       </c>
       <c r="C39">
@@ -3133,18 +3119,18 @@
       </c>
       <c r="L39">
         <f t="shared" si="4"/>
-        <v>34.267499999999998</v>
+        <v>60.92</v>
       </c>
       <c r="M39">
         <f t="shared" si="5"/>
-        <v>4.2834374999999998</v>
+        <v>15.23</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>139</v>
       </c>
       <c r="C40">
@@ -3177,18 +3163,18 @@
       </c>
       <c r="L40">
         <f t="shared" si="4"/>
-        <v>7.3589062500000004</v>
+        <v>13.0825</v>
       </c>
       <c r="M40">
         <f t="shared" si="5"/>
-        <v>0.91986328125000005</v>
+        <v>3.2706249999999999</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>140</v>
       </c>
       <c r="C41">
@@ -3221,18 +3207,18 @@
       </c>
       <c r="L41">
         <f t="shared" si="4"/>
-        <v>57.457968749999999</v>
+        <v>102.14750000000001</v>
       </c>
       <c r="M41">
         <f t="shared" si="5"/>
-        <v>7.1822460937499999</v>
+        <v>25.536875000000002</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>141</v>
       </c>
       <c r="C42">
@@ -3265,18 +3251,18 @@
       </c>
       <c r="L42">
         <f t="shared" si="4"/>
-        <v>2.3920312499999996</v>
+        <v>4.2524999999999995</v>
       </c>
       <c r="M42">
         <f t="shared" si="5"/>
-        <v>0.29900390624999995</v>
+        <v>1.0631249999999999</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s">
         <v>142</v>
       </c>
       <c r="C43">
@@ -3320,7 +3306,7 @@
       <c r="A44" t="s">
         <v>40</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>143</v>
       </c>
       <c r="C44">
@@ -3353,18 +3339,18 @@
       </c>
       <c r="L44">
         <f t="shared" si="4"/>
-        <v>202.08796875000002</v>
+        <v>359.26749999999998</v>
       </c>
       <c r="M44">
         <f t="shared" si="5"/>
-        <v>25.260996093750002</v>
+        <v>89.816874999999996</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
         <v>144</v>
       </c>
       <c r="C45">
@@ -3397,18 +3383,18 @@
       </c>
       <c r="L45">
         <f t="shared" si="4"/>
-        <v>444.5859375</v>
+        <v>790.375</v>
       </c>
       <c r="M45">
         <f t="shared" si="5"/>
-        <v>55.5732421875</v>
+        <v>197.59375</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>145</v>
       </c>
       <c r="C46">
@@ -3441,18 +3427,18 @@
       </c>
       <c r="L46">
         <f t="shared" si="4"/>
-        <v>24.219843749999995</v>
+        <v>43.057499999999997</v>
       </c>
       <c r="M46">
         <f t="shared" si="5"/>
-        <v>3.0274804687499994</v>
+        <v>10.764374999999999</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>146</v>
       </c>
       <c r="C47">
@@ -3485,18 +3471,18 @@
       </c>
       <c r="L47">
         <f t="shared" si="4"/>
-        <v>1320.00046875</v>
+        <v>2346.6675</v>
       </c>
       <c r="M47">
         <f t="shared" si="5"/>
-        <v>165.00005859375</v>
+        <v>586.666875</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
         <v>147</v>
       </c>
       <c r="C48">
@@ -3529,18 +3515,18 @@
       </c>
       <c r="L48">
         <f t="shared" si="4"/>
-        <v>3.1204687500000006</v>
+        <v>5.5475000000000003</v>
       </c>
       <c r="M48">
         <f t="shared" si="5"/>
-        <v>0.39005859375000007</v>
+        <v>1.3868750000000001</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
         <v>148</v>
       </c>
       <c r="C49">
@@ -3584,7 +3570,7 @@
       <c r="A50" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>149</v>
       </c>
       <c r="C50">
@@ -3617,18 +3603,18 @@
       </c>
       <c r="L50">
         <f t="shared" si="4"/>
-        <v>23.757187500000001</v>
+        <v>42.234999999999999</v>
       </c>
       <c r="M50">
         <f t="shared" si="5"/>
-        <v>2.9696484375000001</v>
+        <v>10.55875</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" t="s">
         <v>150</v>
       </c>
       <c r="C51">
@@ -3661,18 +3647,18 @@
       </c>
       <c r="L51">
         <f t="shared" si="4"/>
-        <v>5.7726562499999998</v>
+        <v>10.262499999999999</v>
       </c>
       <c r="M51">
         <f t="shared" si="5"/>
-        <v>0.72158203124999998</v>
+        <v>2.5656249999999998</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>48</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s">
         <v>151</v>
       </c>
       <c r="C52">
@@ -3705,18 +3691,18 @@
       </c>
       <c r="L52">
         <f t="shared" si="4"/>
-        <v>0.52593750000000006</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="M52">
         <f t="shared" si="5"/>
-        <v>6.5742187500000007E-2</v>
+        <v>0.23375000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>152</v>
       </c>
       <c r="C53">
@@ -3749,18 +3735,18 @@
       </c>
       <c r="L53">
         <f t="shared" si="4"/>
-        <v>4.7812500000000001E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="M53">
         <f t="shared" si="5"/>
-        <v>5.9765625000000001E-3</v>
+        <v>2.1250000000000002E-2</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>50</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
         <v>153</v>
       </c>
       <c r="C54">
@@ -3793,18 +3779,18 @@
       </c>
       <c r="L54">
         <f t="shared" si="4"/>
-        <v>0.37546875000000002</v>
+        <v>0.66749999999999998</v>
       </c>
       <c r="M54">
         <f t="shared" si="5"/>
-        <v>4.6933593750000002E-2</v>
+        <v>0.166875</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" t="s">
         <v>154</v>
       </c>
       <c r="C55">
@@ -3837,18 +3823,18 @@
       </c>
       <c r="L55">
         <f t="shared" si="4"/>
-        <v>0.13500000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="M55">
         <f t="shared" si="5"/>
-        <v>1.6875000000000001E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>155</v>
       </c>
       <c r="C56">
@@ -3892,7 +3878,7 @@
       <c r="A57" t="s">
         <v>53</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" t="s">
         <v>156</v>
       </c>
       <c r="C57">
@@ -3925,18 +3911,18 @@
       </c>
       <c r="L57">
         <f t="shared" si="4"/>
-        <v>10.816875000000003</v>
+        <v>19.230000000000004</v>
       </c>
       <c r="M57">
         <f t="shared" si="5"/>
-        <v>1.3521093750000004</v>
+        <v>4.807500000000001</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>54</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
         <v>157</v>
       </c>
       <c r="C58">
@@ -3969,18 +3955,18 @@
       </c>
       <c r="L58">
         <f t="shared" si="4"/>
-        <v>0.92671875000000004</v>
+        <v>1.6475</v>
       </c>
       <c r="M58">
         <f t="shared" si="5"/>
-        <v>0.11583984375</v>
+        <v>0.41187499999999999</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" t="s">
         <v>158</v>
       </c>
       <c r="C59">
@@ -4013,18 +3999,18 @@
       </c>
       <c r="L59">
         <f t="shared" si="4"/>
-        <v>2.2612499999999995</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="M59">
         <f t="shared" si="5"/>
-        <v>0.28265624999999994</v>
+        <v>1.0049999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>56</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s">
         <v>159</v>
       </c>
       <c r="C60">
@@ -4057,18 +4043,18 @@
       </c>
       <c r="L60">
         <f t="shared" si="4"/>
-        <v>0.90562500000000001</v>
+        <v>1.61</v>
       </c>
       <c r="M60">
         <f t="shared" si="5"/>
-        <v>0.113203125</v>
+        <v>0.40250000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>57</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" t="s">
         <v>160</v>
       </c>
       <c r="C61">
@@ -4101,18 +4087,18 @@
       </c>
       <c r="L61">
         <f t="shared" si="4"/>
-        <v>4.0781250000000005E-2</v>
+        <v>7.2500000000000009E-2</v>
       </c>
       <c r="M61">
         <f t="shared" si="5"/>
-        <v>5.0976562500000006E-3</v>
+        <v>1.8125000000000002E-2</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>58</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" t="s">
         <v>161</v>
       </c>
       <c r="C62">
@@ -4145,18 +4131,18 @@
       </c>
       <c r="L62">
         <f t="shared" si="4"/>
-        <v>17.956406250000001</v>
+        <v>31.922500000000003</v>
       </c>
       <c r="M62">
         <f t="shared" si="5"/>
-        <v>2.2445507812500001</v>
+        <v>7.9806250000000007</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" t="s">
         <v>162</v>
       </c>
       <c r="C63">
@@ -4189,18 +4175,18 @@
       </c>
       <c r="L63">
         <f t="shared" si="4"/>
-        <v>16.557187499999998</v>
+        <v>29.434999999999999</v>
       </c>
       <c r="M63">
         <f t="shared" si="5"/>
-        <v>2.0696484374999997</v>
+        <v>7.3587499999999997</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>60</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" t="s">
         <v>163</v>
       </c>
       <c r="C64">
@@ -4233,18 +4219,18 @@
       </c>
       <c r="L64">
         <f t="shared" si="4"/>
-        <v>91.551093749999993</v>
+        <v>162.75749999999999</v>
       </c>
       <c r="M64">
         <f t="shared" si="5"/>
-        <v>11.443886718749999</v>
+        <v>40.689374999999998</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" t="s">
         <v>164</v>
       </c>
       <c r="C65">
@@ -4277,18 +4263,18 @@
       </c>
       <c r="L65">
         <f t="shared" si="4"/>
-        <v>4.3059374999999998</v>
+        <v>7.6550000000000002</v>
       </c>
       <c r="M65">
         <f t="shared" si="5"/>
-        <v>0.53824218749999997</v>
+        <v>1.9137500000000001</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>62</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" t="s">
         <v>165</v>
       </c>
       <c r="C66">
@@ -4321,18 +4307,18 @@
       </c>
       <c r="L66">
         <f t="shared" si="4"/>
-        <v>7.13671875</v>
+        <v>12.6875</v>
       </c>
       <c r="M66">
         <f t="shared" si="5"/>
-        <v>0.89208984375</v>
+        <v>3.171875</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" t="s">
         <v>166</v>
       </c>
       <c r="C67">
@@ -4365,18 +4351,18 @@
       </c>
       <c r="L67">
         <f t="shared" si="4"/>
-        <v>4.078125</v>
+        <v>7.25</v>
       </c>
       <c r="M67">
         <f t="shared" si="5"/>
-        <v>0.509765625</v>
+        <v>1.8125</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>64</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
         <v>167</v>
       </c>
       <c r="C68">
@@ -4409,18 +4395,18 @@
       </c>
       <c r="L68">
         <f t="shared" si="4"/>
-        <v>0.14484374999999999</v>
+        <v>0.25750000000000001</v>
       </c>
       <c r="M68">
         <f t="shared" si="5"/>
-        <v>1.8105468749999999E-2</v>
+        <v>6.4375000000000002E-2</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>65</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" t="s">
         <v>168</v>
       </c>
       <c r="C69">
@@ -4453,18 +4439,18 @@
       </c>
       <c r="L69">
         <f t="shared" si="4"/>
-        <v>0.83390624999999996</v>
+        <v>1.4824999999999999</v>
       </c>
       <c r="M69">
         <f t="shared" si="5"/>
-        <v>0.10423828125</v>
+        <v>0.37062499999999998</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" t="s">
         <v>169</v>
       </c>
       <c r="C70">
@@ -4497,18 +4483,18 @@
       </c>
       <c r="L70">
         <f t="shared" ref="L70:L91" si="10">(SUM(J70,H70,F70,D70)*$L$1)*($O$1/$C$1)</f>
-        <v>6.1931250000000002</v>
+        <v>11.010000000000002</v>
       </c>
       <c r="M70">
         <f t="shared" ref="M70:M91" si="11">L70/$C$1</f>
-        <v>0.77414062500000003</v>
+        <v>2.7525000000000004</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>67</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" t="s">
         <v>170</v>
       </c>
       <c r="C71">
@@ -4541,18 +4527,18 @@
       </c>
       <c r="L71">
         <f t="shared" si="10"/>
-        <v>8.5893750000000004</v>
+        <v>15.27</v>
       </c>
       <c r="M71">
         <f t="shared" si="11"/>
-        <v>1.0736718750000001</v>
+        <v>3.8174999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>68</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" t="s">
         <v>171</v>
       </c>
       <c r="C72">
@@ -4585,18 +4571,18 @@
       </c>
       <c r="L72">
         <f t="shared" si="10"/>
-        <v>1.0659375</v>
+        <v>1.895</v>
       </c>
       <c r="M72">
         <f t="shared" si="11"/>
-        <v>0.1332421875</v>
+        <v>0.47375</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" t="s">
         <v>172</v>
       </c>
       <c r="C73">
@@ -4629,18 +4615,18 @@
       </c>
       <c r="L73">
         <f t="shared" si="10"/>
-        <v>1.1432812499999998</v>
+        <v>2.0324999999999998</v>
       </c>
       <c r="M73">
         <f t="shared" si="11"/>
-        <v>0.14291015624999998</v>
+        <v>0.50812499999999994</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>70</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>173</v>
       </c>
       <c r="C74">
@@ -4673,18 +4659,18 @@
       </c>
       <c r="L74">
         <f t="shared" si="10"/>
-        <v>1.6959374999999999</v>
+        <v>3.0150000000000001</v>
       </c>
       <c r="M74">
         <f t="shared" si="11"/>
-        <v>0.21199218749999998</v>
+        <v>0.75375000000000003</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>71</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" t="s">
         <v>174</v>
       </c>
       <c r="C75">
@@ -4717,18 +4703,18 @@
       </c>
       <c r="L75">
         <f t="shared" si="10"/>
-        <v>0.19968749999999999</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="M75">
         <f t="shared" si="11"/>
-        <v>2.4960937499999999E-2</v>
+        <v>8.8749999999999996E-2</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>72</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" t="s">
         <v>175</v>
       </c>
       <c r="C76">
@@ -4761,18 +4747,18 @@
       </c>
       <c r="L76">
         <f t="shared" si="10"/>
-        <v>2.7365625000000002</v>
+        <v>4.8650000000000002</v>
       </c>
       <c r="M76">
         <f t="shared" si="11"/>
-        <v>0.34207031250000003</v>
+        <v>1.2162500000000001</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>73</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" t="s">
         <v>176</v>
       </c>
       <c r="C77">
@@ -4805,18 +4791,18 @@
       </c>
       <c r="L77">
         <f t="shared" si="10"/>
-        <v>0.85921874999999992</v>
+        <v>1.5274999999999999</v>
       </c>
       <c r="M77">
         <f t="shared" si="11"/>
-        <v>0.10740234374999999</v>
+        <v>0.38187499999999996</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>74</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" t="s">
         <v>177</v>
       </c>
       <c r="C78">
@@ -4849,18 +4835,18 @@
       </c>
       <c r="L78">
         <f t="shared" si="10"/>
-        <v>0.52734375</v>
+        <v>0.9375</v>
       </c>
       <c r="M78">
         <f t="shared" si="11"/>
-        <v>6.591796875E-2</v>
+        <v>0.234375</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>75</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" t="s">
         <v>178</v>
       </c>
       <c r="C79">
@@ -4904,7 +4890,7 @@
       <c r="A80" t="s">
         <v>76</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" t="s">
         <v>179</v>
       </c>
       <c r="C80">
@@ -4937,18 +4923,18 @@
       </c>
       <c r="L80">
         <f t="shared" si="10"/>
-        <v>0.59624999999999995</v>
+        <v>1.0599999999999998</v>
       </c>
       <c r="M80">
         <f t="shared" si="11"/>
-        <v>7.4531249999999993E-2</v>
+        <v>0.26499999999999996</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>77</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" t="s">
         <v>180</v>
       </c>
       <c r="C81">
@@ -4981,18 +4967,18 @@
       </c>
       <c r="L81">
         <f t="shared" si="10"/>
-        <v>1.3907812499999999</v>
+        <v>2.4724999999999997</v>
       </c>
       <c r="M81">
         <f t="shared" si="11"/>
-        <v>0.17384765624999998</v>
+        <v>0.61812499999999992</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>78</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" t="s">
         <v>181</v>
       </c>
       <c r="C82">
@@ -5025,18 +5011,18 @@
       </c>
       <c r="L82">
         <f t="shared" si="10"/>
-        <v>1.5510937499999997</v>
+        <v>2.7574999999999998</v>
       </c>
       <c r="M82">
         <f t="shared" si="11"/>
-        <v>0.19388671874999996</v>
+        <v>0.68937499999999996</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>79</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" t="s">
         <v>182</v>
       </c>
       <c r="C83">
@@ -5069,18 +5055,18 @@
       </c>
       <c r="L83">
         <f t="shared" si="10"/>
-        <v>0.50343749999999998</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="M83">
         <f t="shared" si="11"/>
-        <v>6.2929687499999998E-2</v>
+        <v>0.22375</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>80</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" t="s">
         <v>183</v>
       </c>
       <c r="C84">
@@ -5113,18 +5099,18 @@
       </c>
       <c r="L84">
         <f t="shared" si="10"/>
-        <v>0.66937499999999994</v>
+        <v>1.19</v>
       </c>
       <c r="M84">
         <f t="shared" si="11"/>
-        <v>8.3671874999999993E-2</v>
+        <v>0.29749999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>81</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" t="s">
         <v>184</v>
       </c>
       <c r="C85">
@@ -5157,18 +5143,18 @@
       </c>
       <c r="L85">
         <f t="shared" si="10"/>
-        <v>1.1446875000000001</v>
+        <v>2.0350000000000001</v>
       </c>
       <c r="M85">
         <f t="shared" si="11"/>
-        <v>0.14308593750000001</v>
+        <v>0.50875000000000004</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>82</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" t="s">
         <v>185</v>
       </c>
       <c r="C86">
@@ -5201,18 +5187,18 @@
       </c>
       <c r="L86">
         <f t="shared" si="10"/>
-        <v>21.449531250000003</v>
+        <v>38.132500000000007</v>
       </c>
       <c r="M86">
         <f t="shared" si="11"/>
-        <v>2.6811914062500004</v>
+        <v>9.5331250000000018</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>83</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" t="s">
         <v>186</v>
       </c>
       <c r="C87">
@@ -5245,18 +5231,18 @@
       </c>
       <c r="L87">
         <f t="shared" si="10"/>
-        <v>0.79453125000000013</v>
+        <v>1.4125000000000001</v>
       </c>
       <c r="M87">
         <f t="shared" si="11"/>
-        <v>9.9316406250000017E-2</v>
+        <v>0.35312500000000002</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>84</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" t="s">
         <v>187</v>
       </c>
       <c r="C88">
@@ -5289,18 +5275,18 @@
       </c>
       <c r="L88">
         <f t="shared" si="10"/>
-        <v>0.71296875000000004</v>
+        <v>1.2675000000000001</v>
       </c>
       <c r="M88">
         <f t="shared" si="11"/>
-        <v>8.9121093750000005E-2</v>
+        <v>0.31687500000000002</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>85</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" t="s">
         <v>188</v>
       </c>
       <c r="C89">
@@ -5333,18 +5319,18 @@
       </c>
       <c r="L89">
         <f t="shared" si="10"/>
-        <v>0.20671875000000001</v>
+        <v>0.36750000000000005</v>
       </c>
       <c r="M89">
         <f t="shared" si="11"/>
-        <v>2.5839843750000001E-2</v>
+        <v>9.1875000000000012E-2</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>86</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" t="s">
         <v>189</v>
       </c>
       <c r="C90">
@@ -5377,18 +5363,18 @@
       </c>
       <c r="L90">
         <f t="shared" si="10"/>
-        <v>0.59625000000000006</v>
+        <v>1.06</v>
       </c>
       <c r="M90">
         <f t="shared" si="11"/>
-        <v>7.4531250000000007E-2</v>
+        <v>0.26500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>87</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" t="s">
         <v>190</v>
       </c>
       <c r="C91">
@@ -5421,11 +5407,11 @@
       </c>
       <c r="L91">
         <f t="shared" si="10"/>
-        <v>0.68484374999999997</v>
+        <v>1.2175</v>
       </c>
       <c r="M91">
         <f t="shared" si="11"/>
-        <v>8.5605468749999997E-2</v>
+        <v>0.30437500000000001</v>
       </c>
     </row>
   </sheetData>
@@ -9406,11 +9392,11 @@
       </c>
       <c r="C2">
         <f>SUM(HalalChicken!L5,'Chicken Gyro'!K6)</f>
-        <v>4136.7529687500009</v>
+        <v>4383.1125000000011</v>
       </c>
       <c r="D2">
         <f>SUM('Chicken Gyro'!L6,HalalChicken!M5)</f>
-        <v>464.0384960937501</v>
+        <v>565.22187500000007</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -9438,11 +9424,11 @@
       </c>
       <c r="C4">
         <f>SUM(HalalChicken!L7,'Chicken Gyro'!K8)</f>
-        <v>13.3626875</v>
+        <v>17.158000000000001</v>
       </c>
       <c r="D4">
         <f>SUM('Chicken Gyro'!L8,HalalChicken!M7)</f>
-        <v>1.5525164930555557</v>
+        <v>3.111305555555556</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -9486,11 +9472,11 @@
       </c>
       <c r="C7">
         <f>SUM(HalalChicken!L10,'Chicken Gyro'!K11)</f>
-        <v>160.17421874999999</v>
+        <v>225.97749999999999</v>
       </c>
       <c r="D7">
         <f>SUM('Chicken Gyro'!L11,HalalChicken!M10)</f>
-        <v>18.972194010416665</v>
+        <v>45.998541666666668</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -9502,11 +9488,11 @@
       </c>
       <c r="C8">
         <f>SUM(HalalChicken!L11,'Chicken Gyro'!K12)</f>
-        <v>1213.2559999999999</v>
+        <v>1287.8409999999999</v>
       </c>
       <c r="D8">
         <f>SUM('Chicken Gyro'!L12,HalalChicken!M11)</f>
-        <v>136.1380972222222</v>
+        <v>166.77122222222221</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -9518,11 +9504,11 @@
       </c>
       <c r="C9">
         <f>SUM(HalalChicken!L12,'Chicken Gyro'!K13)</f>
-        <v>0.60878125000000005</v>
+        <v>0.67549999999999999</v>
       </c>
       <c r="D9">
         <f>SUM('Chicken Gyro'!L13,HalalChicken!M12)</f>
-        <v>6.8833767361111117E-2</v>
+        <v>9.6236111111111106E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -9534,11 +9520,11 @@
       </c>
       <c r="C10">
         <f>SUM(HalalChicken!L13,'Chicken Gyro'!K14)</f>
-        <v>1.2136562500000001</v>
+        <v>1.5035000000000001</v>
       </c>
       <c r="D10">
         <f>SUM('Chicken Gyro'!L14,HalalChicken!M13)</f>
-        <v>0.14002647569444443</v>
+        <v>0.25906944444444446</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -9550,11 +9536,11 @@
       </c>
       <c r="C11">
         <f>SUM(HalalChicken!L14,'Chicken Gyro'!K15)</f>
-        <v>7.9617500000000012</v>
+        <v>12.013000000000002</v>
       </c>
       <c r="D11">
         <f>SUM('Chicken Gyro'!L15,HalalChicken!M14)</f>
-        <v>0.95698263888888901</v>
+        <v>2.6208888888888895</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -9566,11 +9552,11 @@
       </c>
       <c r="C12">
         <f>SUM(HalalChicken!L15,'Chicken Gyro'!K16)</f>
-        <v>4.1151875000000002</v>
+        <v>5.0229999999999997</v>
       </c>
       <c r="D12">
         <f>SUM('Chicken Gyro'!L16,HalalChicken!M15)</f>
-        <v>0.47345399305555558</v>
+        <v>0.84630555555555564</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -9582,11 +9568,11 @@
       </c>
       <c r="C13">
         <f>SUM(HalalChicken!L16,'Chicken Gyro'!K17)</f>
-        <v>1.63090625</v>
+        <v>2.1044999999999998</v>
       </c>
       <c r="D13">
         <f>SUM('Chicken Gyro'!L17,HalalChicken!M16)</f>
-        <v>0.18966883680555557</v>
+        <v>0.38418055555555558</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -9598,11 +9584,11 @@
       </c>
       <c r="C14">
         <f>SUM(HalalChicken!L17,'Chicken Gyro'!K18)</f>
-        <v>2.4941250000000004</v>
+        <v>3.3560000000000003</v>
       </c>
       <c r="D14">
         <f>SUM('Chicken Gyro'!L18,HalalChicken!M17)</f>
-        <v>0.29251562500000006</v>
+        <v>0.64650000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -9614,11 +9600,11 @@
       </c>
       <c r="C15">
         <f>SUM(HalalChicken!L18,'Chicken Gyro'!K19)</f>
-        <v>274.27049999999997</v>
+        <v>291.71799999999996</v>
       </c>
       <c r="D15">
         <f>SUM('Chicken Gyro'!L19,HalalChicken!M18)</f>
-        <v>30.7860625</v>
+        <v>37.951999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -9630,11 +9616,11 @@
       </c>
       <c r="C16">
         <f>SUM(HalalChicken!L19,'Chicken Gyro'!K20)</f>
-        <v>0.19546875</v>
+        <v>0.27749999999999997</v>
       </c>
       <c r="D16">
         <f>SUM('Chicken Gyro'!L20,HalalChicken!M19)</f>
-        <v>2.3183593750000002E-2</v>
+        <v>5.6875000000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9646,11 +9632,11 @@
       </c>
       <c r="C17">
         <f>SUM(HalalChicken!L20,'Chicken Gyro'!K21)</f>
-        <v>4444.0772187500006</v>
+        <v>5687.5254999999997</v>
       </c>
       <c r="D17">
         <f>SUM('Chicken Gyro'!L21,HalalChicken!M20)</f>
-        <v>515.99079123263891</v>
+        <v>1026.692763888889</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -9662,11 +9648,11 @@
       </c>
       <c r="C18">
         <f>SUM(HalalChicken!L21,'Chicken Gyro'!K22)</f>
-        <v>513.83553125000003</v>
+        <v>762.95350000000008</v>
       </c>
       <c r="D18">
         <f>SUM('Chicken Gyro'!L22,HalalChicken!M21)</f>
-        <v>61.541371961805559</v>
+        <v>163.85768055555556</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -9694,11 +9680,11 @@
       </c>
       <c r="C20">
         <f>SUM(HalalChicken!L23,'Chicken Gyro'!K24)</f>
-        <v>184.67028124999999</v>
+        <v>244.60449999999997</v>
       </c>
       <c r="D20">
         <f>SUM('Chicken Gyro'!L24,HalalChicken!M23)</f>
-        <v>21.58917404513889</v>
+        <v>46.205013888888885</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -9710,11 +9696,11 @@
       </c>
       <c r="C21">
         <f>SUM(HalalChicken!L24,'Chicken Gyro'!K25)</f>
-        <v>1.360625</v>
+        <v>2.38</v>
       </c>
       <c r="D21">
         <f>SUM('Chicken Gyro'!L25,HalalChicken!M24)</f>
-        <v>0.16938368055555555</v>
+        <v>0.58805555555555555</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -9726,11 +9712,11 @@
       </c>
       <c r="C22">
         <f>SUM(HalalChicken!L25,'Chicken Gyro'!K26)</f>
-        <v>224.208</v>
+        <v>247.203</v>
       </c>
       <c r="D22">
         <f>SUM('Chicken Gyro'!L26,HalalChicken!M25)</f>
-        <v>25.322624999999999</v>
+        <v>34.766999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -9742,162 +9728,162 @@
       </c>
       <c r="C23">
         <f>SUM(HalalChicken!L26,'Chicken Gyro'!K27)</f>
-        <v>6.9736249999999993</v>
+        <v>10.898</v>
       </c>
       <c r="D23">
         <f>SUM('Chicken Gyro'!L27,HalalChicken!M26)</f>
-        <v>0.84492534722222212</v>
+        <v>2.456722222222222</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>126</v>
       </c>
       <c r="C24">
         <f>SUM(HalalChicken!L27,'Chicken Gyro'!K28)</f>
-        <v>4160.7036250000001</v>
+        <v>5783.4130000000005</v>
       </c>
       <c r="D24">
         <f>SUM('Chicken Gyro'!L28,HalalChicken!M27)</f>
-        <v>491.27735590277786</v>
+        <v>1157.747277777778</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>127</v>
       </c>
       <c r="C25">
         <f>SUM(HalalChicken!L28,'Chicken Gyro'!K29)</f>
-        <v>5211.2455</v>
+        <v>5211.683</v>
       </c>
       <c r="D25">
         <f>SUM('Chicken Gyro'!L29,HalalChicken!M28)</f>
-        <v>579.03509027777773</v>
+        <v>579.21477777777773</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>128</v>
       </c>
       <c r="C26">
         <f>SUM(HalalChicken!L29,'Chicken Gyro'!K30)</f>
-        <v>181.67887500000001</v>
+        <v>196.60200000000003</v>
       </c>
       <c r="D26">
         <f>SUM('Chicken Gyro'!L30,HalalChicken!M29)</f>
-        <v>20.453026041666668</v>
+        <v>26.582166666666669</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>129</v>
       </c>
       <c r="C27">
         <f>SUM(HalalChicken!L30,'Chicken Gyro'!K31)</f>
-        <v>584.88040624999996</v>
+        <v>714.55649999999991</v>
       </c>
       <c r="D27">
         <f>SUM('Chicken Gyro'!L31,HalalChicken!M30)</f>
-        <v>67.302356336805559</v>
+        <v>120.56218055555556</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>130</v>
       </c>
       <c r="C28">
         <f>SUM(HalalChicken!L31,'Chicken Gyro'!K32)</f>
-        <v>111.34421875000001</v>
+        <v>119.2225</v>
       </c>
       <c r="D28">
         <f>SUM('Chicken Gyro'!L32,HalalChicken!M31)</f>
-        <v>12.512263454861113</v>
+        <v>15.747986111111112</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>131</v>
       </c>
       <c r="C29">
         <f>SUM(HalalChicken!L32,'Chicken Gyro'!K33)</f>
-        <v>120.99740625</v>
+        <v>126.70350000000001</v>
       </c>
       <c r="D29">
         <f>SUM('Chicken Gyro'!L33,HalalChicken!M32)</f>
-        <v>13.546050781249999</v>
+        <v>15.889624999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>132</v>
       </c>
       <c r="C30">
         <f>SUM(HalalChicken!L33,'Chicken Gyro'!K34)</f>
-        <v>13.26953125</v>
+        <v>15.217499999999999</v>
       </c>
       <c r="D30">
         <f>SUM('Chicken Gyro'!L34,HalalChicken!M33)</f>
-        <v>1.5091775173611111</v>
+        <v>2.3092361111111108</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>133</v>
       </c>
       <c r="C31">
         <f>SUM(HalalChicken!L34,'Chicken Gyro'!K35)</f>
-        <v>495.08799999999991</v>
+        <v>520.81299999999987</v>
       </c>
       <c r="D31">
         <f>SUM('Chicken Gyro'!L35,HalalChicken!M34)</f>
-        <v>55.469152777777765</v>
+        <v>66.034777777777762</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>134</v>
       </c>
       <c r="C32">
         <f>SUM(HalalChicken!L35,'Chicken Gyro'!K36)</f>
-        <v>2178.5808124999999</v>
+        <v>2294.3630000000003</v>
       </c>
       <c r="D32">
         <f>SUM('Chicken Gyro'!L36,HalalChicken!M35)</f>
-        <v>244.13207378472222</v>
+        <v>291.68547222222219</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>135</v>
       </c>
       <c r="C33">
@@ -9910,106 +9896,106 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>136</v>
       </c>
       <c r="C34">
         <f>SUM(HalalChicken!L37,'Chicken Gyro'!K38)</f>
-        <v>0.99187500000000006</v>
+        <v>1.18</v>
       </c>
       <c r="D34">
         <f>SUM('Chicken Gyro'!L38,HalalChicken!M37)</f>
-        <v>0.11356770833333332</v>
+        <v>0.19083333333333333</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>137</v>
       </c>
       <c r="C35">
         <f>SUM(HalalChicken!L38,'Chicken Gyro'!K39)</f>
-        <v>1.3148437500000001</v>
+        <v>2.0924999999999998</v>
       </c>
       <c r="D35">
         <f>SUM('Chicken Gyro'!L39,HalalChicken!M38)</f>
-        <v>0.15998046874999999</v>
+        <v>0.479375</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>138</v>
       </c>
       <c r="C36">
         <f>SUM(HalalChicken!L39,'Chicken Gyro'!K40)</f>
-        <v>37.494499999999995</v>
+        <v>64.147000000000006</v>
       </c>
       <c r="D36">
         <f>SUM('Chicken Gyro'!L40,HalalChicken!M39)</f>
-        <v>4.6419930555555551</v>
+        <v>15.588555555555557</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>139</v>
       </c>
       <c r="C37">
         <f>SUM(HalalChicken!L40,'Chicken Gyro'!K41)</f>
-        <v>38.097906250000008</v>
+        <v>43.8215</v>
       </c>
       <c r="D37">
         <f>SUM('Chicken Gyro'!L41,HalalChicken!M40)</f>
-        <v>4.3353077256944452</v>
+        <v>6.6860694444444446</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>140</v>
       </c>
       <c r="C38">
         <f>SUM(HalalChicken!L41,'Chicken Gyro'!K42)</f>
-        <v>226.81296875000001</v>
+        <v>271.50250000000005</v>
       </c>
       <c r="D38">
         <f>SUM('Chicken Gyro'!L42,HalalChicken!M41)</f>
-        <v>25.999468315972223</v>
+        <v>44.354097222222222</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>141</v>
       </c>
       <c r="C39">
         <f>SUM(HalalChicken!L42,'Chicken Gyro'!K43)</f>
-        <v>3.9790312499999998</v>
+        <v>5.8394999999999992</v>
       </c>
       <c r="D39">
         <f>SUM('Chicken Gyro'!L43,HalalChicken!M42)</f>
-        <v>0.47533723958333329</v>
+        <v>1.2394583333333333</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>142</v>
       </c>
       <c r="C40">
@@ -10022,90 +10008,90 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>143</v>
       </c>
       <c r="C41">
         <f>SUM(HalalChicken!L44,'Chicken Gyro'!K45)</f>
-        <v>735.23796875000016</v>
+        <v>892.41750000000002</v>
       </c>
       <c r="D41">
         <f>SUM('Chicken Gyro'!L45,HalalChicken!M44)</f>
-        <v>84.499884982638903</v>
+        <v>149.05576388888889</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" t="s">
         <v>144</v>
       </c>
       <c r="C42">
         <f>SUM(HalalChicken!L45,'Chicken Gyro'!K46)</f>
-        <v>4583.9579375000003</v>
+        <v>4929.7470000000003</v>
       </c>
       <c r="D42">
         <f>SUM('Chicken Gyro'!L46,HalalChicken!M45)</f>
-        <v>515.50346440972226</v>
+        <v>657.52397222222226</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s">
         <v>145</v>
       </c>
       <c r="C43">
         <f>SUM(HalalChicken!L46,'Chicken Gyro'!K47)</f>
-        <v>38.95984374999999</v>
+        <v>57.797499999999992</v>
       </c>
       <c r="D43">
         <f>SUM('Chicken Gyro'!L47,HalalChicken!M46)</f>
-        <v>4.6652582465277765</v>
+        <v>12.402152777777777</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>146</v>
       </c>
       <c r="C44">
         <f>SUM(HalalChicken!L47,'Chicken Gyro'!K48)</f>
-        <v>13826.796468749999</v>
+        <v>14853.463499999998</v>
       </c>
       <c r="D44">
         <f>SUM('Chicken Gyro'!L48,HalalChicken!M47)</f>
-        <v>1554.6440585937498</v>
+        <v>1976.3108749999997</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
         <v>147</v>
       </c>
       <c r="C45">
         <f>SUM(HalalChicken!L48,'Chicken Gyro'!K49)</f>
-        <v>6.4794687500000006</v>
+        <v>8.9065000000000012</v>
       </c>
       <c r="D45">
         <f>SUM('Chicken Gyro'!L49,HalalChicken!M48)</f>
-        <v>0.76328081597222242</v>
+        <v>1.7600972222222224</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>148</v>
       </c>
       <c r="C46">
@@ -10126,98 +10112,98 @@
       </c>
       <c r="C47" s="1">
         <f>SUM(HalalChicken!L50,'Chicken Gyro'!K51)</f>
-        <v>428.16418750000003</v>
+        <v>446.64200000000005</v>
       </c>
       <c r="D47">
         <f>SUM('Chicken Gyro'!L51,HalalChicken!M50)</f>
-        <v>47.903759548611113</v>
+        <v>55.492861111111111</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
         <v>150</v>
       </c>
       <c r="C48">
         <f>SUM(HalalChicken!L51,'Chicken Gyro'!K52)</f>
-        <v>72.406656250000012</v>
+        <v>76.896500000000017</v>
       </c>
       <c r="D48">
         <f>SUM('Chicken Gyro'!L52,HalalChicken!M51)</f>
-        <v>8.1253598090277794</v>
+        <v>9.9694027777777805</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
         <v>151</v>
       </c>
       <c r="C49">
         <f>SUM(HalalChicken!L52,'Chicken Gyro'!K53)</f>
-        <v>9.4269374999999993</v>
+        <v>9.8360000000000003</v>
       </c>
       <c r="D49">
         <f>SUM('Chicken Gyro'!L53,HalalChicken!M52)</f>
-        <v>1.0547421875</v>
+        <v>1.22275</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>152</v>
       </c>
       <c r="C50">
         <f>SUM(HalalChicken!L53,'Chicken Gyro'!K54)</f>
-        <v>7.1812500000000001E-2</v>
+        <v>0.10900000000000001</v>
       </c>
       <c r="D50">
         <f>SUM('Chicken Gyro'!L54,HalalChicken!M53)</f>
-        <v>8.6432291666666671E-3</v>
+        <v>2.3916666666666669E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" t="s">
         <v>153</v>
       </c>
       <c r="C51">
         <f>SUM(HalalChicken!L54,'Chicken Gyro'!K55)</f>
-        <v>9.4864687500000002</v>
+        <v>9.7785000000000011</v>
       </c>
       <c r="D51">
         <f>SUM('Chicken Gyro'!L55,HalalChicken!M54)</f>
-        <v>1.0592669270833333</v>
+        <v>1.1792083333333334</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s">
         <v>154</v>
       </c>
       <c r="C52">
         <f>SUM(HalalChicken!L55,'Chicken Gyro'!K56)</f>
-        <v>15.795000000000002</v>
+        <v>15.900000000000002</v>
       </c>
       <c r="D52">
         <f>SUM('Chicken Gyro'!L56,HalalChicken!M55)</f>
-        <v>1.7568750000000002</v>
+        <v>1.8000000000000003</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" t="s">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>155</v>
       </c>
       <c r="C53">
@@ -10230,362 +10216,362 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
         <v>156</v>
       </c>
       <c r="C54">
         <f>SUM(HalalChicken!L57,'Chicken Gyro'!K58)</f>
-        <v>16.462875000000004</v>
+        <v>24.876000000000005</v>
       </c>
       <c r="D54">
         <f>SUM('Chicken Gyro'!L58,HalalChicken!M57)</f>
-        <v>1.9794427083333337</v>
+        <v>5.4348333333333345</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" t="s">
         <v>157</v>
       </c>
       <c r="C55">
         <f>SUM(HalalChicken!L58,'Chicken Gyro'!K59)</f>
-        <v>2.8857187500000001</v>
+        <v>3.6065</v>
       </c>
       <c r="D55">
         <f>SUM('Chicken Gyro'!L59,HalalChicken!M58)</f>
-        <v>0.33350651041666668</v>
+        <v>0.62954166666666667</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>158</v>
       </c>
       <c r="C56">
         <f>SUM(HalalChicken!L59,'Chicken Gyro'!K60)</f>
-        <v>83.002249999999989</v>
+        <v>84.760999999999981</v>
       </c>
       <c r="D56">
         <f>SUM('Chicken Gyro'!L60,HalalChicken!M59)</f>
-        <v>9.2538784722222207</v>
+        <v>9.9762222222222192</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" t="s">
         <v>159</v>
       </c>
       <c r="C57">
         <f>SUM(HalalChicken!L60,'Chicken Gyro'!K61)</f>
-        <v>45.905625000000001</v>
+        <v>46.61</v>
       </c>
       <c r="D57">
         <f>SUM('Chicken Gyro'!L61,HalalChicken!M60)</f>
-        <v>5.1132031250000001</v>
+        <v>5.4024999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
         <v>160</v>
       </c>
       <c r="C58">
         <f>SUM(HalalChicken!L61,'Chicken Gyro'!K62)</f>
-        <v>0.83878125000000003</v>
+        <v>0.87050000000000005</v>
       </c>
       <c r="D58">
         <f>SUM('Chicken Gyro'!L62,HalalChicken!M61)</f>
-        <v>9.376432291666667E-2</v>
+        <v>0.10679166666666667</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" t="s">
         <v>161</v>
       </c>
       <c r="C59">
         <f>SUM(HalalChicken!L62,'Chicken Gyro'!K63)</f>
-        <v>354.94640625</v>
+        <v>368.91250000000002</v>
       </c>
       <c r="D59">
         <f>SUM('Chicken Gyro'!L63,HalalChicken!M62)</f>
-        <v>39.687884114583333</v>
+        <v>45.423958333333339</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s">
         <v>162</v>
       </c>
       <c r="C60">
         <f>SUM(HalalChicken!L63,'Chicken Gyro'!K64)</f>
-        <v>154.51818750000001</v>
+        <v>167.39600000000002</v>
       </c>
       <c r="D60">
         <f>SUM('Chicken Gyro'!L64,HalalChicken!M63)</f>
-        <v>17.3986484375</v>
+        <v>22.687750000000001</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" t="s">
         <v>163</v>
       </c>
       <c r="C61">
         <f>SUM(HalalChicken!L64,'Chicken Gyro'!K65)</f>
-        <v>943.00809375000006</v>
+        <v>1014.2145</v>
       </c>
       <c r="D61">
         <f>SUM('Chicken Gyro'!L65,HalalChicken!M64)</f>
-        <v>106.05022005208333</v>
+        <v>135.29570833333332</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" t="s">
         <v>164</v>
       </c>
       <c r="C62">
         <f>SUM(HalalChicken!L65,'Chicken Gyro'!K66)</f>
-        <v>47.440937499999997</v>
+        <v>50.79</v>
       </c>
       <c r="D62">
         <f>SUM('Chicken Gyro'!L66,HalalChicken!M65)</f>
-        <v>5.3310199652777772</v>
+        <v>6.7065277777777776</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="A63" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" t="s">
         <v>165</v>
       </c>
       <c r="C63">
         <f>SUM(HalalChicken!L66,'Chicken Gyro'!K67)</f>
-        <v>13.97571875</v>
+        <v>19.526499999999999</v>
       </c>
       <c r="D63">
         <f>SUM('Chicken Gyro'!L67,HalalChicken!M66)</f>
-        <v>1.6519787326388888</v>
+        <v>3.9317638888888888</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" t="s">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" t="s">
         <v>166</v>
       </c>
       <c r="C64">
         <f>SUM(HalalChicken!L67,'Chicken Gyro'!K68)</f>
-        <v>35.254125000000002</v>
+        <v>38.426000000000002</v>
       </c>
       <c r="D64">
         <f>SUM('Chicken Gyro'!L68,HalalChicken!M67)</f>
-        <v>3.973765625</v>
+        <v>5.2765000000000004</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" t="s">
         <v>167</v>
       </c>
       <c r="C65">
         <f>SUM(HalalChicken!L68,'Chicken Gyro'!K69)</f>
-        <v>0.86184375000000002</v>
+        <v>0.97450000000000014</v>
       </c>
       <c r="D65">
         <f>SUM('Chicken Gyro'!L69,HalalChicken!M68)</f>
-        <v>9.7772135416666683E-2</v>
+        <v>0.14404166666666668</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="A66" t="s">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" t="s">
         <v>168</v>
       </c>
       <c r="C66">
         <f>SUM(HalalChicken!L69,'Chicken Gyro'!K70)</f>
-        <v>1.6279062500000001</v>
+        <v>2.2765</v>
       </c>
       <c r="D66">
         <f>SUM('Chicken Gyro'!L70,HalalChicken!M69)</f>
-        <v>0.19246050347222221</v>
+        <v>0.45884722222222218</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" t="s">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" t="s">
         <v>169</v>
       </c>
       <c r="C67">
         <f>SUM(HalalChicken!L70,'Chicken Gyro'!K71)</f>
-        <v>11.845124999999999</v>
+        <v>16.661999999999999</v>
       </c>
       <c r="D67">
         <f>SUM('Chicken Gyro'!L71,HalalChicken!M70)</f>
-        <v>1.4021406249999999</v>
+        <v>3.3805000000000005</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="A68" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
         <v>170</v>
       </c>
       <c r="C68">
         <f>SUM(HalalChicken!L71,'Chicken Gyro'!K72)</f>
-        <v>69.099375000000009</v>
+        <v>75.78</v>
       </c>
       <c r="D68">
         <f>SUM('Chicken Gyro'!L72,HalalChicken!M71)</f>
-        <v>7.7970052083333332</v>
+        <v>10.540833333333333</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" t="s">
         <v>171</v>
       </c>
       <c r="C69">
         <f>SUM(HalalChicken!L72,'Chicken Gyro'!K73)</f>
-        <v>1.8889374999999999</v>
+        <v>2.718</v>
       </c>
       <c r="D69">
         <f>SUM('Chicken Gyro'!L73,HalalChicken!M72)</f>
-        <v>0.22468663194444444</v>
+        <v>0.56519444444444444</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="A70" t="s">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" t="s">
         <v>172</v>
       </c>
       <c r="C70">
         <f>SUM(HalalChicken!L73,'Chicken Gyro'!K74)</f>
-        <v>2.07728125</v>
+        <v>2.9664999999999999</v>
       </c>
       <c r="D70">
         <f>SUM('Chicken Gyro'!L74,HalalChicken!M73)</f>
-        <v>0.24668793402777778</v>
+        <v>0.61190277777777768</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" t="s">
         <v>173</v>
       </c>
       <c r="C71">
         <f>SUM(HalalChicken!L74,'Chicken Gyro'!K75)</f>
-        <v>3.7639374999999999</v>
+        <v>5.0830000000000002</v>
       </c>
       <c r="D71">
         <f>SUM('Chicken Gyro'!L75,HalalChicken!M74)</f>
-        <v>0.44176996527777779</v>
+        <v>0.98352777777777778</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" t="s">
         <v>174</v>
       </c>
       <c r="C72">
         <f>SUM(HalalChicken!L75,'Chicken Gyro'!K76)</f>
-        <v>0.41468749999999999</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="D72">
         <f>SUM('Chicken Gyro'!L76,HalalChicken!M75)</f>
-        <v>4.8849826388888885E-2</v>
+        <v>0.11263888888888889</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" t="s">
         <v>175</v>
       </c>
       <c r="C73">
         <f>SUM(HalalChicken!L76,'Chicken Gyro'!K77)</f>
-        <v>8.1175625</v>
+        <v>10.246</v>
       </c>
       <c r="D73">
         <f>SUM('Chicken Gyro'!L77,HalalChicken!M76)</f>
-        <v>0.93995920138888889</v>
+        <v>1.814138888888889</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="A74" t="s">
         <v>73</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>176</v>
       </c>
       <c r="C74">
         <f>SUM(HalalChicken!L77,'Chicken Gyro'!K78)</f>
-        <v>1.4422187499999999</v>
+        <v>2.1105</v>
       </c>
       <c r="D74">
         <f>SUM('Chicken Gyro'!L78,HalalChicken!M77)</f>
-        <v>0.17218012152777776</v>
+        <v>0.44665277777777773</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="A75" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" t="s">
         <v>177</v>
       </c>
       <c r="C75">
         <f>SUM(HalalChicken!L78,'Chicken Gyro'!K79)</f>
-        <v>1.00334375</v>
+        <v>1.4135</v>
       </c>
       <c r="D75">
         <f>SUM('Chicken Gyro'!L79,HalalChicken!M78)</f>
-        <v>0.1188068576388889</v>
+        <v>0.28726388888888887</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="A76" t="s">
         <v>75</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" t="s">
         <v>178</v>
       </c>
       <c r="C76">
@@ -10598,99 +10584,99 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="A77" t="s">
         <v>76</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" t="s">
         <v>179</v>
       </c>
       <c r="C77">
         <f>SUM(HalalChicken!L80,'Chicken Gyro'!K81)</f>
-        <v>1.4942500000000001</v>
+        <v>1.9579999999999997</v>
       </c>
       <c r="D77">
         <f>SUM('Chicken Gyro'!L81,HalalChicken!M80)</f>
-        <v>0.17430902777777779</v>
+        <v>0.36477777777777776</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" t="s">
         <v>180</v>
       </c>
       <c r="C78">
         <f>SUM(HalalChicken!L81,'Chicken Gyro'!K82)</f>
-        <v>3.0467812499999996</v>
+        <v>4.1284999999999989</v>
       </c>
       <c r="D78">
         <f>SUM('Chicken Gyro'!L82,HalalChicken!M81)</f>
-        <v>0.35784765624999992</v>
+        <v>0.80212499999999987</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="A79" t="s">
         <v>78</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" t="s">
         <v>181</v>
       </c>
       <c r="C79">
         <f>SUM(HalalChicken!L82,'Chicken Gyro'!K83)</f>
-        <v>3.0490937499999999</v>
+        <v>4.2554999999999996</v>
       </c>
       <c r="D79">
         <f>SUM('Chicken Gyro'!L83,HalalChicken!M82)</f>
-        <v>0.36033116319444447</v>
+        <v>0.85581944444444447</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="A80" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" t="s">
         <v>182</v>
       </c>
       <c r="C80">
         <f>SUM(HalalChicken!L83,'Chicken Gyro'!K84)</f>
-        <v>0.94943749999999993</v>
+        <v>1.341</v>
       </c>
       <c r="D80">
         <f>SUM('Chicken Gyro'!L84,HalalChicken!M83)</f>
-        <v>0.11248524305555554</v>
+        <v>0.27330555555555558</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="A81" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" t="s">
         <v>183</v>
       </c>
       <c r="C81">
         <f>SUM(HalalChicken!L84,'Chicken Gyro'!K85)</f>
-        <v>1.6393749999999998</v>
+        <v>2.16</v>
       </c>
       <c r="D81">
         <f>SUM('Chicken Gyro'!L85,HalalChicken!M84)</f>
-        <v>0.19144965277777776</v>
+        <v>0.40527777777777774</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="A82" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" t="s">
         <v>184</v>
       </c>
       <c r="C82">
         <f>SUM(HalalChicken!L85,'Chicken Gyro'!K86)</f>
-        <v>2.6356875</v>
+        <v>3.5259999999999998</v>
       </c>
       <c r="D82">
         <f>SUM('Chicken Gyro'!L86,HalalChicken!M85)</f>
-        <v>0.30875260416666667</v>
+        <v>0.67441666666666666</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -10702,91 +10688,91 @@
       </c>
       <c r="C83" s="1">
         <f>SUM(HalalChicken!L86,'Chicken Gyro'!K87)</f>
-        <v>272.10253125000003</v>
+        <v>288.78550000000001</v>
       </c>
       <c r="D83">
         <f>SUM('Chicken Gyro'!L87,HalalChicken!M86)</f>
-        <v>30.531524739583336</v>
+        <v>37.383458333333337</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="A84" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" t="s">
         <v>186</v>
       </c>
       <c r="C84">
         <f>SUM(HalalChicken!L87,'Chicken Gyro'!K88)</f>
-        <v>1.8485312500000004</v>
+        <v>2.4665000000000004</v>
       </c>
       <c r="D84">
         <f>SUM('Chicken Gyro'!L88,HalalChicken!M87)</f>
-        <v>0.21642751736111115</v>
+        <v>0.47023611111111119</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="A85" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" t="s">
         <v>187</v>
       </c>
       <c r="C85">
         <f>SUM(HalalChicken!L88,'Chicken Gyro'!K89)</f>
-        <v>1.5479687499999999</v>
+        <v>2.1025</v>
       </c>
       <c r="D85">
         <f>SUM('Chicken Gyro'!L89,HalalChicken!M88)</f>
-        <v>0.18189887152777778</v>
+        <v>0.40965277777777781</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="A86" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" t="s">
         <v>188</v>
       </c>
       <c r="C86">
         <f>SUM(HalalChicken!L89,'Chicken Gyro'!K90)</f>
-        <v>0.49071875000000004</v>
+        <v>0.65150000000000008</v>
       </c>
       <c r="D86">
         <f>SUM('Chicken Gyro'!L90,HalalChicken!M89)</f>
-        <v>5.739539930555556E-2</v>
+        <v>0.12343055555555557</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="A87" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" t="s">
         <v>189</v>
       </c>
       <c r="C87">
         <f>SUM(HalalChicken!L90,'Chicken Gyro'!K91)</f>
-        <v>1.3062499999999999</v>
+        <v>1.77</v>
       </c>
       <c r="D87">
         <f>SUM('Chicken Gyro'!L91,HalalChicken!M90)</f>
-        <v>0.15342013888888889</v>
+        <v>0.34388888888888891</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="A88" t="s">
         <v>87</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" t="s">
         <v>190</v>
       </c>
       <c r="C88">
         <f>SUM(HalalChicken!L91,'Chicken Gyro'!K92)</f>
-        <v>1.76484375</v>
+        <v>2.2975000000000003</v>
       </c>
       <c r="D88">
         <f>SUM('Chicken Gyro'!L92,HalalChicken!M91)</f>
-        <v>0.20560546875000002</v>
+        <v>0.424375</v>
       </c>
     </row>
   </sheetData>
